--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\jobsites-search-chrome-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="industry" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>ID</t>
   </si>
@@ -276,9 +275,6 @@
   </si>
   <si>
     <t>WY</t>
-  </si>
-  <si>
-    <t>缩写</t>
   </si>
   <si>
     <t>州名原文</t>
@@ -1745,7 +1741,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1762,28 +1758,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1803,13 +1799,13 @@
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1829,13 +1825,13 @@
         <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,13 +1851,13 @@
         <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,13 +1877,13 @@
         <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1907,13 +1903,13 @@
         <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1933,13 +1929,13 @@
         <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1953,13 +1949,13 @@
         <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1973,13 +1969,13 @@
         <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1993,13 +1989,13 @@
         <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2013,13 +2009,13 @@
         <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2033,13 +2029,13 @@
         <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,13 +2069,13 @@
         <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2093,13 +2089,13 @@
         <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2113,13 +2109,13 @@
         <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2133,13 +2129,13 @@
         <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2150,16 +2146,16 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="G18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2170,16 +2166,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="G19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2193,13 +2189,13 @@
         <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2213,13 +2209,13 @@
         <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2233,13 +2229,13 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2253,13 +2249,13 @@
         <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2273,13 +2269,13 @@
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2293,13 +2289,13 @@
         <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2313,13 +2309,13 @@
         <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2333,13 +2329,13 @@
         <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,13 +2349,13 @@
         <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2373,13 +2369,13 @@
         <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2393,13 +2389,13 @@
         <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2413,13 +2409,13 @@
         <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,13 +2423,13 @@
         <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
@@ -2441,13 +2437,13 @@
         <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
@@ -2455,13 +2451,13 @@
         <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
@@ -2469,13 +2465,13 @@
         <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
@@ -2483,27 +2479,27 @@
         <v>70</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
@@ -2511,13 +2507,13 @@
         <v>71</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
@@ -2525,13 +2521,13 @@
         <v>72</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.25">
@@ -2539,13 +2535,13 @@
         <v>73</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
@@ -2553,13 +2549,13 @@
         <v>74</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
@@ -2567,13 +2563,13 @@
         <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
@@ -2581,13 +2577,13 @@
         <v>76</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
@@ -2595,13 +2591,13 @@
         <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.25">
@@ -2609,13 +2605,13 @@
         <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.25">
@@ -2623,13 +2619,13 @@
         <v>79</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.25">
@@ -2637,13 +2633,13 @@
         <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.25">
@@ -2651,13 +2647,13 @@
         <v>81</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
@@ -2665,13 +2661,13 @@
         <v>82</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">
@@ -2679,13 +2675,13 @@
         <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.25">
@@ -2693,13 +2689,13 @@
         <v>84</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2762,791 +2758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>234</v>
-      </c>
-      <c r="C46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" t="s">
-        <v>238</v>
-      </c>
-      <c r="C50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C51" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://baike.baidu.com/item/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://baike.baidu.com/item/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://baike.baidu.com/item/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://baike.baidu.com/item/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://baike.baidu.com/item/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://baike.baidu.com/item/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://baike.baidu.com/item/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://baike.baidu.com/item/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://baike.baidu.com/item/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://baike.baidu.com/item/%E4%BD%90%E6%B2%BB%E4%BA%9A%E5%B7%9E"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://baike.baidu.com/item/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://baike.baidu.com/item/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://baike.baidu.com/item/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://baike.baidu.com/item/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://baike.baidu.com/item/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://baike.baidu.com/item/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://baike.baidu.com/item/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E"/>
-    <hyperlink ref="D19" r:id="rId18" display="https://baike.baidu.com/item/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://baike.baidu.com/item/%E7%BC%85%E5%9B%A0%E5%B7%9E"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://baike.baidu.com/item/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://baike.baidu.com/item/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://baike.baidu.com/item/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://baike.baidu.com/item/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%B7%9E"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://baike.baidu.com/item/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://baike.baidu.com/item/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E"/>
-    <hyperlink ref="D27" r:id="rId26" display="https://baike.baidu.com/item/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E"/>
-    <hyperlink ref="D28" r:id="rId27" display="https://baike.baidu.com/item/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E"/>
-    <hyperlink ref="D29" r:id="rId28" display="https://baike.baidu.com/item/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E"/>
-    <hyperlink ref="D30" r:id="rId29" display="https://baike.baidu.com/item/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E"/>
-    <hyperlink ref="D31" r:id="rId30" display="https://baike.baidu.com/item/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E"/>
-    <hyperlink ref="D32" r:id="rId31" display="https://baike.baidu.com/item/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E"/>
-    <hyperlink ref="D33" r:id="rId32" display="https://baike.baidu.com/item/%E7%BA%BD%E7%BA%A6%E5%B7%9E"/>
-    <hyperlink ref="D34" r:id="rId33" display="https://baike.baidu.com/item/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E"/>
-    <hyperlink ref="D35" r:id="rId34" display="https://baike.baidu.com/item/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://baike.baidu.com/item/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E"/>
-    <hyperlink ref="D37" r:id="rId36" display="https://baike.baidu.com/item/%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A9%AC%E5%B7%9E"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://baike.baidu.com/item/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E"/>
-    <hyperlink ref="D39" r:id="rId38" display="https://baike.baidu.com/item/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E"/>
-    <hyperlink ref="D40" r:id="rId39" display="https://baike.baidu.com/item/%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E"/>
-    <hyperlink ref="D41" r:id="rId40" display="https://baike.baidu.com/item/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E"/>
-    <hyperlink ref="D42" r:id="rId41" display="https://baike.baidu.com/item/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E"/>
-    <hyperlink ref="D43" r:id="rId42" display="https://baike.baidu.com/item/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E"/>
-    <hyperlink ref="D44" r:id="rId43" display="https://baike.baidu.com/item/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E"/>
-    <hyperlink ref="D45" r:id="rId44" display="https://baike.baidu.com/item/%E7%8A%B9%E4%BB%96%E5%B7%9E"/>
-    <hyperlink ref="D46" r:id="rId45" display="https://baike.baidu.com/item/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E"/>
-    <hyperlink ref="D47" r:id="rId46" display="https://baike.baidu.com/item/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E"/>
-    <hyperlink ref="D48" r:id="rId47" display="https://baike.baidu.com/item/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E"/>
-    <hyperlink ref="D49" r:id="rId48" display="https://baike.baidu.com/item/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E"/>
-    <hyperlink ref="D50" r:id="rId49" display="https://baike.baidu.com/item/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E"/>
-    <hyperlink ref="D51" r:id="rId50" display="https://baike.baidu.com/item/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>ID</t>
   </si>
@@ -808,6 +808,14 @@
   </si>
   <si>
     <t>State</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>只设置US可取消location限制</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1738,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2696,6 +2704,14 @@
       </c>
       <c r="H51" s="2" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1748,14 +1748,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="22.36328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.08984375" style="2" customWidth="1"/>
